--- a/medicine/Enfance/V&A_Museum_of_Childhood/V&A_Museum_of_Childhood.xlsx
+++ b/medicine/Enfance/V&A_Museum_of_Childhood/V&A_Museum_of_Childhood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%26A_Museum_of_Childhood</t>
+          <t>V&amp;A_Museum_of_Childhood</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le V&amp;A Museum of Childhood ou musée de l'enfance est une branche du Victoria and Albert Museum (également appelé « V&amp;A »), qui est le musée national des arts appliqués du Royaume-Uni. Le V&amp;A Museum of childhood est situé à Bethnal Green, dans l'East End de Londres.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%26A_Museum_of_Childhood</t>
+          <t>V&amp;A_Museum_of_Childhood</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée a été fondé en 1872 sous le nom Musée de Bethnal Green. Il s'agissait d'une construction préfabriquée d'Albertopolis qui a été déplacée, et à laquelle ont été ajoutés quelques éléments modernes du V&amp;A . Il présentait alors diverses collections, notamment des œuvres qui peuvent désormais être vues à la Wallace Collection. 
 Dans les années 1920, il a commencé à mettre l'accent sur les services pour les enfants, et en 1974, le directeur du V&amp;A, Sir Roy Strong, l'a défini comme un musée spécialisé sur le thème de l'enfance.
